--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ordinaweb-my.sharepoint.com/personal/wouter_vancauwenberghe_ordina_be1/Documents/Bureaublad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ordinaweb-my.sharepoint.com/personal/wouter_vancauwenberghe_ordina_be1/Documents/Documenten/GitHub/Case-YPP-21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="8_{3EDAD748-598B-4DA7-8F9D-BF3284C4D951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{88F1C0E4-0FA3-4846-B577-1801AA39346D}"/>
+  <xr:revisionPtr revIDLastSave="587" documentId="8_{3EDAD748-598B-4DA7-8F9D-BF3284C4D951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{446C0B16-1550-4AC0-AD0C-A533DCCEBFA0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DE1FB1E-A489-46BC-A499-5F0211AAC137}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3DE1FB1E-A489-46BC-A499-5F0211AAC137}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact Vertrek" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="210">
   <si>
     <t>Aankomst_ID</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bezzeting moet met hoofdletter in model </t>
+  </si>
+  <si>
+    <t>OLTP_Luchthaven_ID</t>
+  </si>
+  <si>
+    <t>OLTP_Vliegtuig_ID</t>
   </si>
 </sst>
 </file>
@@ -783,12 +789,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1105,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E1E212-38E3-4C0B-8D2A-2990FF009435}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1214,7 +1220,7 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1624,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BDC501-DC8C-4C75-B172-4D427CFDD9ED}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,12 +1659,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1669,10 +1669,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -1680,11 +1680,11 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1693,10 +1693,10 @@
         <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -1705,10 +1705,10 @@
         <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -1717,10 +1717,10 @@
         <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -1729,10 +1729,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -1741,10 +1741,10 @@
         <v>57</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1753,10 +1753,10 @@
         <v>57</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -1765,10 +1765,10 @@
         <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -1777,10 +1777,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -1789,17 +1789,23 @@
         <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,6 +1873,12 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE6910A-D13B-40EC-8E12-AEF0B5F1D7D2}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,12 +1917,6 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1920,57 +1926,44 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,13 +1971,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1992,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,121 +1993,160 @@
         <v>81</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>64</v>
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
-        <v>80</v>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2281,7 +2310,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
@@ -2295,7 +2324,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="14"/>
       <c r="D4" t="s">
         <v>126</v>
       </c>
@@ -2307,7 +2336,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
@@ -2321,7 +2350,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="14"/>
       <c r="D6" t="s">
         <v>126</v>
       </c>
@@ -2584,7 +2613,7 @@
       <c r="C13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2596,7 +2625,7 @@
       <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2913,7 +2942,7 @@
       <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C44" s="7"/>
@@ -2922,7 +2951,7 @@
       <c r="A45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C45" s="7"/>
@@ -2931,7 +2960,7 @@
       <c r="A46" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C46" s="7"/>
@@ -2940,7 +2969,7 @@
       <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2948,7 +2977,7 @@
       <c r="A48" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2956,7 +2985,7 @@
       <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2964,7 +2993,7 @@
       <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2972,7 +3001,7 @@
       <c r="A51" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2980,7 +3009,7 @@
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2988,7 +3017,7 @@
       <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2996,7 +3025,7 @@
       <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3004,7 +3033,7 @@
       <c r="A55" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3012,7 +3041,7 @@
       <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3020,7 +3049,7 @@
       <c r="A57" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3028,7 +3057,7 @@
       <c r="A58" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3036,7 +3065,7 @@
       <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3044,7 +3073,7 @@
       <c r="A60" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3052,7 +3081,7 @@
       <c r="A61" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3060,7 +3089,7 @@
       <c r="A62" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3068,7 +3097,7 @@
       <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3076,7 +3105,7 @@
       <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3084,7 +3113,7 @@
       <c r="A65" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3092,7 +3121,7 @@
       <c r="A66" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3100,7 +3129,7 @@
       <c r="A67" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3108,7 +3137,7 @@
       <c r="A68" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3116,7 +3145,7 @@
       <c r="A69" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3124,7 +3153,7 @@
       <c r="A70" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3132,7 +3161,7 @@
       <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3140,7 +3169,7 @@
       <c r="A72" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3148,7 +3177,7 @@
       <c r="A73" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3156,7 +3185,7 @@
       <c r="A74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3164,7 +3193,7 @@
       <c r="A75" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3172,7 +3201,7 @@
       <c r="A76" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3180,7 +3209,7 @@
       <c r="A77" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3188,7 +3217,7 @@
       <c r="A78" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3196,7 +3225,7 @@
       <c r="A79" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>200</v>
       </c>
     </row>
